--- a/Data/05_Mobilitet og infrastruktur/Persontransport og reisevaner/2023/Figur 4 Jernbanetransport SSB 10484.xlsx
+++ b/Data/05_Mobilitet og infrastruktur/Persontransport og reisevaner/2023/Figur 4 Jernbanetransport SSB 10484.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/ellen_just_hansen_vtfk_no/Documents/Dokumenter/GitHub/Vestfold/Data/05_Mobilitet og infrastruktur/Persontransport og reisevaner/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{968DAE53-C1B7-457A-8801-1C29AED2E1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{968DAE53-C1B7-457A-8801-1C29AED2E1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC3CF9B5-EBE2-49E5-BE4B-5ACF4589EE64}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="17610" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Passasjerkilometer" sheetId="2" r:id="rId1"/>
@@ -20,36 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>10484: Persontransport med jernbane, etter togstrekning, statistikkvariabel og år</t>
   </si>
   <si>
     <t>Transportarbeid (passasjerkm)</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
   </si>
   <si>
     <t>260 InterCity - Oslo-Skien</t>
@@ -161,11 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,11 +447,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
@@ -482,7 +461,7 @@
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -496,34 +475,34 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
+      <c r="B4" s="4">
+        <v>2015</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2020</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2021</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2022</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>301463776</v>
@@ -552,87 +531,87 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -642,32 +621,32 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
